--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2693664.507425746</v>
+        <v>-2696359.304701595</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>295.7880427010224</v>
+        <v>23.41994504831823</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>47.65883542934908</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.781160222249223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>193.3921981866892</v>
       </c>
       <c r="X5" t="n">
-        <v>97.00614067381021</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>8.906162259191587</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>37.34834979772465</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1111,7 +1111,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>204.6785882200682</v>
+        <v>160.5958651236754</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>48.99533837730304</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.6692588683104</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569554</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892427987</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012179</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428251</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428251</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833856</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,25 +2476,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2719,19 +2719,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308926</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096056</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317882</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096051</v>
@@ -3478,19 +3478,19 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352486</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>350.0225872761065</v>
+        <v>141.2769458819311</v>
       </c>
       <c r="C2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="D2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.22751757712</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.76175931604</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>736.6224273402283</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.2467865680031</v>
+        <v>99.38702437542642</v>
       </c>
       <c r="C4" t="n">
-        <v>51.2467865680031</v>
+        <v>99.38702437542642</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>99.38702437542642</v>
       </c>
       <c r="E4" t="n">
         <v>51.2467865680031</v>
@@ -4528,10 +4528,10 @@
         <v>281.0354892056661</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764878</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.2467865680031</v>
+        <v>281.0354892056661</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1621.991392838317</v>
+        <v>1228.647807131574</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838317</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583055</v>
+        <v>1988.713405456775</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.591232902438</v>
+        <v>1615.247647195695</v>
       </c>
       <c r="Y5" t="n">
-        <v>2008.591232902438</v>
+        <v>1615.247647195695</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,7 +4641,7 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
@@ -4659,10 +4659,10 @@
         <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.63996629486</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.1367340659135</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C7" t="n">
-        <v>198.1367340659135</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1598.720514218209</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1402.091766378071</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1179.113285572806</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>889.9949480766438</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>889.9949480766438</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W7" t="n">
-        <v>600.5777780396833</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X7" t="n">
-        <v>600.5777780396833</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y7" t="n">
-        <v>379.7851988961531</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.878520285689</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C8" t="n">
-        <v>1767.878520285689</v>
+        <v>1365.084818551269</v>
       </c>
       <c r="D8" t="n">
-        <v>1409.612821678939</v>
+        <v>1365.084818551269</v>
       </c>
       <c r="E8" t="n">
-        <v>1023.824569080695</v>
+        <v>979.296565953025</v>
       </c>
       <c r="F8" t="n">
-        <v>612.8386642910871</v>
+        <v>568.3106611634175</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,7 +4799,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>2510.786507531614</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>970.0546934046018</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X10" t="n">
-        <v>742.0651425065845</v>
+        <v>763.0834407704886</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>542.2908616269584</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121627</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330921</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330921</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330921</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138398</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,25 +5264,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.012762333092</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>261.012762333092</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,46 +5516,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,22 +5586,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438167</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>261.012762333092</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>261.012762333092</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C25" t="n">
         <v>782.5512955656819</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,10 +6169,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6382,13 +6382,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6634,16 +6634,16 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
         <v>1483.79828551875</v>
@@ -6664,7 +6664,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,7 +6695,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
@@ -6853,7 +6853,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.0944824954149</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,7 +7020,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7138,7 +7138,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7400,13 +7400,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7728,10 +7728,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,25 +7801,25 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.449012614385</v>
       </c>
       <c r="P6" t="n">
-        <v>294.8344935184736</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>69.4848490699851</v>
+        <v>341.8529467226893</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>248.4644354452379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,7 +22562,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>187.1603202505051</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.8034931298456</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393263</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409392984</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409392984</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393028</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1128673.256856969</v>
+        <v>1128673.256856968</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>6.408439590953865e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363168</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>1.067169600551447e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.550338660868315e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30724.14482028159</v>
+        <v>30724.14482028157</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.23512810792</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756446</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756504</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>17328.05961985004</v>
+        <v>17328.05961985005</v>
       </c>
       <c r="J4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985008</v>
       </c>
       <c r="K4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985008</v>
       </c>
       <c r="L4" t="n">
         <v>17328.05961985006</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985007</v>
       </c>
       <c r="N4" t="n">
         <v>17328.05961985006</v>
@@ -26457,7 +26457,7 @@
         <v>17328.05961985005</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985006</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1238413.700836046</v>
+        <v>-1238877.99762807</v>
       </c>
       <c r="C6" t="n">
         <v>-229664.0461319472</v>
@@ -26528,40 +26528,40 @@
         <v>-389085.3161298392</v>
       </c>
       <c r="E6" t="n">
-        <v>-435872.1919880191</v>
+        <v>-435906.9299134546</v>
       </c>
       <c r="F6" t="n">
-        <v>-110459.7301806638</v>
+        <v>-110494.4681060994</v>
       </c>
       <c r="G6" t="n">
-        <v>-110459.7301806636</v>
+        <v>-110494.4681060994</v>
       </c>
       <c r="H6" t="n">
-        <v>-110459.7301806637</v>
+        <v>-110494.4681060994</v>
       </c>
       <c r="I6" t="n">
-        <v>-139919.8934673971</v>
+        <v>-139919.8934673972</v>
       </c>
       <c r="J6" t="n">
-        <v>-288097.3532837479</v>
+        <v>-288097.353283748</v>
       </c>
       <c r="K6" t="n">
-        <v>-120492.1754737656</v>
+        <v>-120492.1754737655</v>
       </c>
       <c r="L6" t="n">
-        <v>-168786.1454819562</v>
+        <v>-168786.1454819561</v>
       </c>
       <c r="M6" t="n">
-        <v>-205547.2034092774</v>
+        <v>-205547.2034092773</v>
       </c>
       <c r="N6" t="n">
-        <v>-139919.8934673973</v>
+        <v>-139919.8934673972</v>
       </c>
       <c r="O6" t="n">
-        <v>-120492.1754737653</v>
+        <v>-120492.1754737655</v>
       </c>
       <c r="P6" t="n">
-        <v>-120492.1754737656</v>
+        <v>-120492.1754737655</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203977</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203977</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203976</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26790,22 +26790,22 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.010549488692331e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>1.333962000689308e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.937923326085394e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.010549488692331e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>1.333962000689308e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.4659346270239</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>113.8582323119003</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>98.77512721722009</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27670,16 +27670,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>155.8487705307238</v>
       </c>
       <c r="X5" t="n">
-        <v>272.7249600046588</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>157.4004377856126</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>64.20922262184898</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>206.2431374333852</v>
+        <v>250.3258605297781</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>176.7143170117341</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.9153944837844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948324</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622656</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32321,31 +32321,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622656</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32558,31 +32558,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948329</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -35027,13 +35027,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>521.873694610508</v>
       </c>
       <c r="P6" t="n">
-        <v>544.5140226420058</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>24.58388860977091</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281407</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35583,10 +35583,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402472</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402472</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281453</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
         <v>418.6266618111712</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37233,10 +37233,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980851</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37941,7 +37941,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
